--- a/src/stat/stats.xlsx
+++ b/src/stat/stats.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au686295\Documents\GitHub\PhD\topography-control-of-ice-albedo\stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au686295\GitHub\PhD\topography-control-of-ice-albedo\src\stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5108B7-F5A9-4BBD-B00C-4D9D7EC8F407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35498827-28A9-4D67-9448-C644ABB6727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31230" yWindow="3030" windowWidth="21435" windowHeight="12360" activeTab="1" xr2:uid="{ABE177B4-A381-4848-9D74-5AD89FAA9339}"/>
+    <workbookView xWindow="8025" yWindow="1620" windowWidth="18225" windowHeight="11385" activeTab="3" xr2:uid="{ABE177B4-A381-4848-9D74-5AD89FAA9339}"/>
   </bookViews>
   <sheets>
     <sheet name="SW" sheetId="1" r:id="rId1"/>
     <sheet name="snowline" sheetId="6" r:id="rId2"/>
     <sheet name="SE" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="pie" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="36">
   <si>
     <t>slope</t>
   </si>
@@ -99,11 +101,72 @@
   <si>
     <t>r2</t>
   </si>
+  <si>
+    <t>dark ice in SE vs dark ice in SW</t>
+  </si>
+  <si>
+    <t>bare ice in SE vs bare ice in SE</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>0.45, 0.65</t>
+  </si>
+  <si>
+    <t>bare ice in SE vs dark ice in SE</t>
+  </si>
+  <si>
+    <t>bare ice in SW vs dark ice in SW</t>
+  </si>
+  <si>
+    <t>dark ice in inland SW vs bare ice in inland SW</t>
+  </si>
+  <si>
+    <t>dark ice in margin SW vs bare ice inmargin SW</t>
+  </si>
+  <si>
+    <t>dark ice in margin SW vs bare ice in margin SW</t>
+  </si>
+  <si>
+    <t>0.40, 0.55</t>
+  </si>
+  <si>
+    <t>0.45, 0.55</t>
+  </si>
+  <si>
+    <t>snow-covered area</t>
+  </si>
+  <si>
+    <t>snow-free area</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>albedo threshold</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>samples</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,13 +219,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,20 +233,11 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -198,20 +249,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -228,6 +280,2036 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pie!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>snow-free area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-DK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>pie!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pie!$G$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6E8-43B0-8A54-364C7F51A1E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pie!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>snow-covered area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-DK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>pie!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pie!$G$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F6E8-43B0-8A54-364C7F51A1E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="201254191"/>
+        <c:axId val="199390991"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="201254191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199390991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="199390991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="201254191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pie!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dark ice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-DK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>pie!$K$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pie!$K$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C223-440D-A153-57846068EADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pie!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bare ice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-DK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>pie!$K$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pie!$K$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C223-440D-A153-57846068EADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="202874175"/>
+        <c:axId val="199390511"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="202874175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199390511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="199390511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="202874175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91AD3C5A-6DA0-609D-28EB-C30B4A49AB74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>712470</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595FF798-B4D4-DC04-F1A0-465E3F701D0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,36 +2623,36 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="13"/>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="9"/>
+      <c r="L1" s="13"/>
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="9"/>
+      <c r="R1" s="13"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -586,30 +2668,30 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -617,46 +2699,46 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.11</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.81</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>-0.74</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.06</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>0.88</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>-0.77</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>0.04</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>0.27</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>-0.17</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>0.71</v>
       </c>
     </row>
@@ -664,46 +2746,46 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>-0.03</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.95</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.77</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.04</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.3</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>0.51</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>0.82</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>0.02</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>0.08</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>0.86</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>0.04</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>0.94</v>
       </c>
     </row>
@@ -711,46 +2793,46 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>-0.34</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.46</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>-0.42</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.35</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0.53</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>-0.67</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>0.1</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>0.18</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>0.25</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>0.6</v>
       </c>
     </row>
@@ -758,46 +2840,46 @@
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.26</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>-0.78</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.04</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>-0.63</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.13</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>0.19</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>0.45</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>0.31</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <v>0.09</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <v>0.85</v>
       </c>
     </row>
@@ -805,46 +2887,46 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.26</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.53</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.69</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>0.09</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>-0.49</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>0.26</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>0.01</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>0.99</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>0.03</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="4">
         <v>0.96</v>
       </c>
     </row>
@@ -866,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073DBDF4-F459-4C7A-9A0A-38DC2A324E1F}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,466 +2962,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="L1" s="12" t="s">
+      <c r="H1" s="13"/>
+      <c r="L1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="2">
         <v>2009</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <v>1387</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="L3" s="12">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="L3" s="8">
         <v>2009</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="12">
         <v>1372</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
+      <c r="A4" s="2">
         <v>2010</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>1622</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="11">
         <v>0.54186400000000001</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="11">
         <v>0.38058399999999998</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="11">
         <v>0.53910499999999995</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="11">
         <v>0.37775300000000001</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="11">
         <v>0.54566300000000001</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="11">
         <v>0.39084799999999997</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="8">
         <v>2010</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="12">
         <v>1407</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="9">
         <v>0.538489</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="9">
         <v>0.36517899999999998</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A5" s="6">
+      <c r="A5" s="2">
         <v>2011</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>1627</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="11">
         <v>0.55297300000000005</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="11">
         <v>0.35842299999999999</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <v>0.520756</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="11">
         <v>0.36104999999999998</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="11">
         <v>0.564025</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>0.35373900000000003</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="8">
         <v>2011</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="12">
         <v>1407</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="10">
         <v>0.54645999999999995</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="10">
         <v>0.32647999999999999</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="8"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:19" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
+      <c r="A6" s="2">
         <v>2012</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>1779</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="11">
         <v>0.53085000000000004</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="11">
         <v>0.35937000000000002</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="11">
         <v>0.52089600000000003</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="11">
         <v>0.34850900000000001</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>0.53625599999999995</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="11">
         <v>0.36931399999999998</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="8">
         <v>2012</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="12">
         <v>1522</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="9">
         <v>0.54096100000000003</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="9">
         <v>0.350408</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="7"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
+      <c r="A7" s="2">
         <v>2013</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>1490</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="11">
         <v>0.55531399999999997</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="11">
         <v>0.357261</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="11">
         <v>0.54577200000000003</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="11">
         <v>0.35629899999999998</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="11">
         <v>0.56848299999999996</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="11">
         <v>0.35937799999999998</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="8">
         <v>2013</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="12">
         <v>1505</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="9">
         <v>0.56157400000000002</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="9">
         <v>0.355825</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A8" s="6">
+      <c r="A8" s="2">
         <v>2014</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>1549</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>0.54911200000000004</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="11">
         <v>0.35162900000000002</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <v>0.53556400000000004</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="11">
         <v>0.321633</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="11">
         <v>0.55646399999999996</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="11">
         <v>0.37559500000000001</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="8">
         <v>2014</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="12">
         <v>1546</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="10">
         <v>0.56596999999999997</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="10">
         <v>0.31158400000000003</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
+      <c r="A9" s="2">
         <v>2015</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>1437</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="10">
         <v>0.55361199999999999</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="11">
         <v>0.37620900000000002</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="11">
         <v>0.55176899999999995</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="11">
         <v>0.35991600000000001</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="11">
         <v>0.55469100000000005</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>0.41075</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="8">
         <v>2015</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="12">
         <v>1374</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="10">
         <v>0.56868200000000002</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="9">
         <v>0.35670099999999999</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="8"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
+      <c r="A10" s="2">
         <v>2016</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>1648</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <v>0.55569000000000002</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>0.33586100000000002</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="11">
         <v>0.53512599999999999</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="11">
         <v>0.31379499999999999</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>0.563365</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="11">
         <v>0.35206599999999999</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="8">
         <v>2016</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="12">
         <v>1537</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="10">
         <v>0.56316200000000005</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="9">
         <v>0.35902800000000001</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="7"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
+      <c r="A11" s="2">
         <v>2017</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>1415</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16"/>
-      <c r="L11" s="12">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="L11" s="8">
         <v>2017</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="12">
         <v>1410</v>
       </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="7"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
         <v>0.51800000000000002</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="2">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="2">
         <v>0.72799999999999998</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="2">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="2">
         <v>0.32700000000000001</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="2">
         <v>0.20499999999999999</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="15">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8">
         <v>4.36E-2</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="18">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="11">
         <v>0.55300000000000005</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="2">
         <v>1.46E-2</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="2">
         <v>0.77900000000000003</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="2">
         <v>0.18</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="2">
         <v>0.308</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="15">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8">
         <v>0.65300000000000002</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="8">
         <v>0.58099999999999996</v>
       </c>
     </row>
@@ -1363,14 +3445,14 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1391,16 +3473,16 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.05</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.92</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>-0.43</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.34</v>
       </c>
     </row>
@@ -1408,16 +3490,16 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.42</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.35</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.77</v>
       </c>
     </row>
@@ -1425,16 +3507,16 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>-0.23</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.62</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.83</v>
       </c>
     </row>
@@ -1442,16 +3524,16 @@
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.04</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.93</v>
       </c>
     </row>
@@ -1459,16 +3541,16 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.59</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.16</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>-0.2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.67</v>
       </c>
     </row>
@@ -1478,6 +3560,597 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9643780-4F75-4F93-9184-D7F7A8A52441}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="15">
+        <v>6.6436710125683599E-147</v>
+      </c>
+      <c r="E5" s="15">
+        <v>3.3078515089393401E-20</v>
+      </c>
+      <c r="F5" s="15">
+        <v>6.43528188297059E-37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="15">
+        <v>8.6239249435440596E-252</v>
+      </c>
+      <c r="E6" s="15">
+        <v>9.9133630952210404E-76</v>
+      </c>
+      <c r="F6" s="15">
+        <v>6.6997662026060902E-66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1.2447537332816E-9</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.99990733285681799</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.82363632498527195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1.2447537332816E-9</v>
+      </c>
+      <c r="E8" s="15">
+        <v>4.4703892925809797E-16</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1.4549880194122199E-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="15">
+        <v>3.4324688170019998E-101</v>
+      </c>
+      <c r="E9" s="15">
+        <v>3.4324688170019998E-101</v>
+      </c>
+      <c r="F9" s="15">
+        <v>2.1870323943237401E-79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15">
+        <v>8.1629793963890896E-32</v>
+      </c>
+      <c r="E10" s="15">
+        <v>6.0516780081415596E-31</v>
+      </c>
+      <c r="F10" s="15">
+        <v>5.6286513645771299E-49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15">
+        <v>3.8326118912055998E-7</v>
+      </c>
+      <c r="E11" s="15">
+        <v>8.3024013664644804E-13</v>
+      </c>
+      <c r="F11" s="15">
+        <v>4.3981401728895403E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15">
+        <v>7.4885853171620095E-46</v>
+      </c>
+      <c r="E12" s="15">
+        <v>3.4915466533238098E-34</v>
+      </c>
+      <c r="F12" s="15">
+        <v>2.9629588627984402E-28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="15">
+        <v>5.1663718684869402E-13</v>
+      </c>
+      <c r="E13" s="15">
+        <v>6.4166269186979302E-3</v>
+      </c>
+      <c r="F13" s="15">
+        <v>2.3818607697825999E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.99999999999948297</v>
+      </c>
+      <c r="E14" s="15">
+        <v>3.8497040340020599E-22</v>
+      </c>
+      <c r="F14" s="15">
+        <v>5.6327139432714899E-13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="15">
+        <v>6.4930772428296299E-39</v>
+      </c>
+      <c r="E15" s="15">
+        <v>6.4930772428296299E-39</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1.1901036083549699E-32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2.8433073733934198E-209</v>
+      </c>
+      <c r="E16" s="15">
+        <v>3.2670372229328398E-51</v>
+      </c>
+      <c r="F16" s="15">
+        <v>7.26972874405016E-61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.99999991033241498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>5.2810902498381996E-47</v>
+      </c>
+      <c r="F19" s="15">
+        <v>6.2727281702898397E-18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.27207838816583502</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.88940439310286901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1.09384381106953E-89</v>
+      </c>
+      <c r="F23" s="15">
+        <v>7.3114961388608203E-152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="15">
+        <v>2.8387073312257002E-300</v>
+      </c>
+      <c r="E24" s="15">
+        <v>3.78644789286627E-26</v>
+      </c>
+      <c r="F24" s="15">
+        <v>7.4926128295268899E-11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AD66C2-5A8C-4967-8316-5B78E5CD59C3}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.218</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="L2" s="14">
+        <f>0.252</f>
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <f>1-B2</f>
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="14">
+        <f>1-G2</f>
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="H3" s="14">
+        <f>1-H2</f>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="14">
+        <f>1-K2</f>
+        <v>0.625</v>
+      </c>
+      <c r="L3" s="14">
+        <f>1-L2</f>
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>1-B4</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <f>1-H7</f>
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/stat/stats.xlsx
+++ b/src/stat/stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au686295\GitHub\PhD\topography-control-of-ice-albedo\src\stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35498827-28A9-4D67-9448-C644ABB6727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE2B6DA-558E-475E-B06D-0F68B5D9F842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="1620" windowWidth="18225" windowHeight="11385" activeTab="3" xr2:uid="{ABE177B4-A381-4848-9D74-5AD89FAA9339}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{ABE177B4-A381-4848-9D74-5AD89FAA9339}"/>
   </bookViews>
   <sheets>
     <sheet name="SW" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -164,8 +167,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -255,12 +258,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,6 +274,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6A4A18"/>
+      <color rgb="FF29416A"/>
+      <color rgb="FFBDC5E6"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFACC5FF"/>
+      <color rgb="FF31414A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -319,7 +332,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="29416A"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -340,13 +353,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-DK"/>
@@ -430,7 +443,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="BDC5E6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -451,13 +464,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-DK"/>
@@ -582,16 +595,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-DK"/>
@@ -642,16 +655,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-DK"/>
@@ -689,7 +702,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1100"/>
+        <a:defRPr sz="1600">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-DK"/>
     </a:p>
@@ -739,7 +755,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="6A4A18"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -760,13 +776,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-DK"/>
@@ -850,7 +866,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="ACC5FF"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -871,13 +887,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-DK"/>
@@ -1002,16 +1018,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-DK"/>
@@ -1062,16 +1078,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-DK"/>
@@ -1109,7 +1125,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1100"/>
+        <a:defRPr sz="1600">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-DK"/>
     </a:p>
@@ -2239,16 +2258,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>55245</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2623,36 +2642,36 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="15"/>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="13"/>
+      <c r="L1" s="15"/>
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="13"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -2967,14 +2986,14 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="15"/>
       <c r="L1" s="8" t="s">
         <v>15</v>
       </c>
@@ -3445,14 +3464,14 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -3567,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9643780-4F75-4F93-9184-D7F7A8A52441}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3610,13 +3629,13 @@
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>0</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3628,13 +3647,13 @@
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3646,13 +3665,13 @@
       <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>6.6436710125683599E-147</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>3.3078515089393401E-20</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>6.43528188297059E-37</v>
       </c>
     </row>
@@ -3664,13 +3683,13 @@
       <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>8.6239249435440596E-252</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>9.9133630952210404E-76</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>6.6997662026060902E-66</v>
       </c>
     </row>
@@ -3682,13 +3701,13 @@
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>1.2447537332816E-9</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0.99990733285681799</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>0.82363632498527195</v>
       </c>
     </row>
@@ -3700,13 +3719,13 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>1.2447537332816E-9</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>4.4703892925809797E-16</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>1.4549880194122199E-14</v>
       </c>
     </row>
@@ -3720,13 +3739,13 @@
       <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>3.4324688170019998E-101</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>3.4324688170019998E-101</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>2.1870323943237401E-79</v>
       </c>
     </row>
@@ -3738,13 +3757,13 @@
       <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>8.1629793963890896E-32</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>6.0516780081415596E-31</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>5.6286513645771299E-49</v>
       </c>
     </row>
@@ -3756,13 +3775,13 @@
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>3.8326118912055998E-7</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>8.3024013664644804E-13</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>4.3981401728895403E-8</v>
       </c>
     </row>
@@ -3774,13 +3793,13 @@
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>7.4885853171620095E-46</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>3.4915466533238098E-34</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>2.9629588627984402E-28</v>
       </c>
     </row>
@@ -3792,13 +3811,13 @@
       <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>5.1663718684869402E-13</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>6.4166269186979302E-3</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>2.3818607697825999E-4</v>
       </c>
     </row>
@@ -3810,13 +3829,13 @@
       <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>0.99999999999948297</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>3.8497040340020599E-22</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>5.6327139432714899E-13</v>
       </c>
     </row>
@@ -3830,13 +3849,13 @@
       <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>6.4930772428296299E-39</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>6.4930772428296299E-39</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>1.1901036083549699E-32</v>
       </c>
     </row>
@@ -3848,13 +3867,13 @@
       <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>2.8433073733934198E-209</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>3.2670372229328398E-51</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>7.26972874405016E-61</v>
       </c>
     </row>
@@ -3866,13 +3885,13 @@
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>1</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>1</v>
       </c>
     </row>
@@ -3884,13 +3903,13 @@
       <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>0.999999999999999</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <v>0.99999991033241498</v>
       </c>
     </row>
@@ -3902,13 +3921,13 @@
       <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>0</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>5.2810902498381996E-47</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>6.2727281702898397E-18</v>
       </c>
     </row>
@@ -3920,13 +3939,13 @@
       <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>1</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>0.27207838816583502</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <v>0.88940439310286901</v>
       </c>
     </row>
@@ -3940,13 +3959,13 @@
       <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>0</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>0</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3958,13 +3977,13 @@
       <c r="C22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>0</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>0</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3976,13 +3995,13 @@
       <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>0</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>1.09384381106953E-89</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>7.3114961388608203E-152</v>
       </c>
     </row>
@@ -3994,13 +4013,13 @@
       <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>2.8387073312257002E-300</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="14">
         <v>3.78644789286627E-26</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="14">
         <v>7.4926128295268899E-11</v>
       </c>
     </row>
@@ -4016,8 +4035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AD66C2-5A8C-4967-8316-5B78E5CD59C3}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4061,19 +4080,19 @@
       <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>0.23599999999999999</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>0.218</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>0.375</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <f>0.252</f>
         <v>0.252</v>
       </c>
@@ -4089,22 +4108,22 @@
       <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <f>1-G2</f>
         <v>0.76400000000000001</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <f>1-H2</f>
         <v>0.78200000000000003</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <f>1-K2</f>
         <v>0.625</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <f>1-L2</f>
         <v>0.748</v>
       </c>
@@ -4150,7 +4169,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
